--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB10789-6212-44D3-BEA5-861050D35DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F3240-2D37-4949-BBA4-A9B38BC7ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51840" yWindow="15" windowWidth="22890" windowHeight="15240" xr2:uid="{76A3AD4F-CA01-436F-AF58-44FFC0F758CA}"/>
+    <workbookView xWindow="47370" yWindow="1185" windowWidth="22890" windowHeight="15240" xr2:uid="{76A3AD4F-CA01-436F-AF58-44FFC0F758CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BAT</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Philip Morris International Inc.</t>
+  </si>
+  <si>
+    <t>Interactive Brokers Group, Inc.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105C0DBF-2B19-4F8C-A417-AE5E85EE7920}">
   <dimension ref="B3:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -479,6 +484,9 @@
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F3240-2D37-4949-BBA4-A9B38BC7ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FEA594-449B-4C34-8CB0-44694D2E1252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47370" yWindow="1185" windowWidth="22890" windowHeight="15240" xr2:uid="{76A3AD4F-CA01-436F-AF58-44FFC0F758CA}"/>
+    <workbookView xWindow="47220" yWindow="-915" windowWidth="22890" windowHeight="15240" xr2:uid="{76A3AD4F-CA01-436F-AF58-44FFC0F758CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
